--- a/analysis/post_gemini_data/participant220/task-med.xlsx
+++ b/analysis/post_gemini_data/participant220/task-med.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,291 +422,215 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>artg</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>condbody2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>condstat</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>condstat2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>exteranl2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>extrnal</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>loopstat</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>methdocall3</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>methodall2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>arg2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>arg3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>artg</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>condbody</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>condbody2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>condstat</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>condstat2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>exteranl2</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>extrnal</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>gemini</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>loopbody</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>loopstat</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>methdocall3</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>methodall2</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>methodcall</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>methoddec</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>var2</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>var3</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>var4</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>var5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>var6</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fixation based metrics</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fixation based metrics</t>
+          <t>Revisit count</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>14</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
@@ -728,494 +640,282 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Revisit count</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+          <t>Fixation count</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>135</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E4" t="n">
-        <v>35</v>
-      </c>
-      <c r="F4" t="n">
-        <v>19</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10</v>
-      </c>
-      <c r="H4" t="n">
-        <v>17</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
-        <v>9</v>
-      </c>
-      <c r="M4" t="n">
-        <v>34</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
       <c r="P4" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q4" t="n">
         <v>6</v>
       </c>
-      <c r="R4" t="n">
-        <v>15</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="U4" t="n">
-        <v>6</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
         <v>1</v>
       </c>
-      <c r="Z4" t="n">
-        <v>3</v>
-      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fixation count</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18</v>
-      </c>
+          <t>Dwell time (ms)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>131</v>
+        <v>5622.62</v>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>4638.28</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>166.8</v>
       </c>
       <c r="H5" t="n">
-        <v>36</v>
+        <v>617.3200000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>44</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
+        <v>3987.64</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>135</v>
+        <v>48881.57</v>
       </c>
       <c r="M5" t="n">
-        <v>101</v>
+        <v>5622.62</v>
       </c>
       <c r="N5" t="n">
-        <v>22</v>
+        <v>200.23</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>166.8</v>
       </c>
       <c r="P5" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>8</v>
-      </c>
-      <c r="R5" t="n">
-        <v>29</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+        <v>4638.28</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>75</v>
+        <v>24411.82</v>
       </c>
       <c r="U5" t="n">
-        <v>7</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>4</v>
-      </c>
+        <v>200.23</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dwell time (ms)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>917.61</v>
-      </c>
-      <c r="C6" t="n">
-        <v>817.5599999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6907.29</v>
-      </c>
+          <t>Dwell time (%)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>47977.42</v>
+        <v>4.67</v>
       </c>
       <c r="F6" t="n">
-        <v>16234.07</v>
+        <v>3.85</v>
       </c>
       <c r="G6" t="n">
-        <v>6957.28</v>
+        <v>0.14</v>
       </c>
       <c r="H6" t="n">
-        <v>14148.51</v>
+        <v>0.51</v>
       </c>
       <c r="I6" t="n">
-        <v>16734.22</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2986.44</v>
-      </c>
-      <c r="K6" t="n">
-        <v>583.92</v>
-      </c>
+        <v>3.31</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>48881.57</v>
+        <v>40.5</v>
       </c>
       <c r="M6" t="n">
-        <v>38390.9</v>
+        <v>4.67</v>
       </c>
       <c r="N6" t="n">
-        <v>10261.21</v>
+        <v>0.17</v>
       </c>
       <c r="O6" t="n">
-        <v>1985.37</v>
+        <v>0.14</v>
       </c>
       <c r="P6" t="n">
-        <v>10711.55</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3921.16</v>
-      </c>
-      <c r="R6" t="n">
-        <v>11805.36</v>
-      </c>
-      <c r="S6" t="n">
-        <v>333.69</v>
-      </c>
+        <v>3.85</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>29031.5</v>
+        <v>20.26</v>
       </c>
       <c r="U6" t="n">
-        <v>3720.89</v>
-      </c>
-      <c r="V6" t="n">
-        <v>250.22</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2819.72</v>
-      </c>
-      <c r="X6" t="n">
-        <v>233.58</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>583.92</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>2235.64</v>
-      </c>
+        <v>0.17</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dwell time (%)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.73</v>
-      </c>
+          <t>Fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>46.76</v>
+        <v>562.26</v>
       </c>
       <c r="F7" t="n">
-        <v>15.82</v>
+        <v>773.05</v>
       </c>
       <c r="G7" t="n">
-        <v>6.78</v>
+        <v>166.8</v>
       </c>
       <c r="H7" t="n">
-        <v>13.79</v>
+        <v>308.66</v>
       </c>
       <c r="I7" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.57</v>
-      </c>
+        <v>797.53</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>40.5</v>
+        <v>362.09</v>
       </c>
       <c r="M7" t="n">
-        <v>37.42</v>
+        <v>562.26</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>200.23</v>
       </c>
       <c r="O7" t="n">
-        <v>1.94</v>
+        <v>166.8</v>
       </c>
       <c r="P7" t="n">
-        <v>10.44</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="R7" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.33</v>
-      </c>
+        <v>773.05</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>28.3</v>
+        <v>290.62</v>
       </c>
       <c r="U7" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2.18</v>
-      </c>
+        <v>200.23</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fixation duration (ms)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>458.81</v>
-      </c>
-      <c r="C8" t="n">
-        <v>408.78</v>
-      </c>
-      <c r="D8" t="n">
-        <v>383.74</v>
-      </c>
+          <t>First fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>366.24</v>
+        <v>383.75</v>
       </c>
       <c r="F8" t="n">
-        <v>450.95</v>
+        <v>383.75</v>
       </c>
       <c r="G8" t="n">
-        <v>409.25</v>
+        <v>166.8</v>
       </c>
       <c r="H8" t="n">
-        <v>393.01</v>
+        <v>200.23</v>
       </c>
       <c r="I8" t="n">
-        <v>380.32</v>
-      </c>
-      <c r="J8" t="n">
-        <v>597.29</v>
-      </c>
-      <c r="K8" t="n">
-        <v>291.96</v>
-      </c>
+        <v>383.75</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>362.09</v>
+        <v>74.93000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>380.11</v>
+        <v>383.75</v>
       </c>
       <c r="N8" t="n">
-        <v>466.42</v>
+        <v>200.23</v>
       </c>
       <c r="O8" t="n">
-        <v>397.07</v>
+        <v>166.8</v>
       </c>
       <c r="P8" t="n">
-        <v>446.31</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>490.14</v>
-      </c>
-      <c r="R8" t="n">
-        <v>407.08</v>
-      </c>
-      <c r="S8" t="n">
-        <v>333.69</v>
-      </c>
+        <v>383.75</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>387.09</v>
+        <v>150.11</v>
       </c>
       <c r="U8" t="n">
-        <v>531.5599999999999</v>
-      </c>
-      <c r="V8" t="n">
-        <v>250.22</v>
-      </c>
-      <c r="W8" t="n">
-        <v>402.82</v>
-      </c>
-      <c r="X8" t="n">
-        <v>233.58</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>291.96</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>558.91</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>First fixation duration (ms)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>517.23</v>
-      </c>
-      <c r="C9" t="n">
-        <v>700.74</v>
-      </c>
-      <c r="D9" t="n">
-        <v>233.65</v>
-      </c>
-      <c r="E9" t="n">
-        <v>142.81</v>
-      </c>
-      <c r="F9" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>283.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>233.65</v>
-      </c>
-      <c r="I9" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>283.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>183.49</v>
-      </c>
-      <c r="L9" t="n">
-        <v>74.93000000000001</v>
-      </c>
-      <c r="M9" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1067.81</v>
-      </c>
-      <c r="O9" t="n">
-        <v>266.89</v>
-      </c>
-      <c r="P9" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>300.31</v>
-      </c>
-      <c r="R9" t="n">
-        <v>142.81</v>
-      </c>
-      <c r="S9" t="n">
-        <v>333.69</v>
-      </c>
-      <c r="T9" t="n">
-        <v>316.95</v>
-      </c>
-      <c r="U9" t="n">
-        <v>483.92</v>
-      </c>
-      <c r="V9" t="n">
-        <v>250.22</v>
-      </c>
-      <c r="W9" t="n">
-        <v>216.88</v>
-      </c>
-      <c r="X9" t="n">
-        <v>233.58</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>183.49</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>283.7</v>
-      </c>
+        <v>200.23</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
